--- a/projects/ptool_small_full_factorial_measures.xlsx
+++ b/projects/ptool_small_full_factorial_measures.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="802">
   <si>
     <t>type</t>
   </si>
@@ -2292,9 +2292,6 @@
     <t>Add EIFS Wall Insulation</t>
   </si>
   <si>
-    <t>Apply Measure</t>
-  </si>
-  <si>
     <t>apply_measure</t>
   </si>
   <si>
@@ -2434,6 +2431,21 @@
   </si>
   <si>
     <t>Sunday End Time</t>
+  </si>
+  <si>
+    <t>Apply EIFS Wall Insulation</t>
+  </si>
+  <si>
+    <t>Apply Wireless Lighting Occupancy Sensors</t>
+  </si>
+  <si>
+    <t>Apply Energy Recovery Ventilator</t>
+  </si>
+  <si>
+    <t>Apply Add Demand Control Ventilation</t>
+  </si>
+  <si>
+    <t>Apply Advanced Power Strips</t>
   </si>
 </sst>
 </file>
@@ -6105,7 +6117,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>472</v>
@@ -6517,7 +6529,7 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6818,10 +6830,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>750</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>751</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>61</v>
@@ -6830,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K9" s="23" t="b">
         <v>1</v>
@@ -6842,7 +6854,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R9" s="44" t="s">
         <v>723</v>
@@ -6853,10 +6865,10 @@
         <v>21</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>63</v>
@@ -6880,13 +6892,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="43" t="s">
+        <v>755</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>757</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>756</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>758</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>757</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>67</v>
@@ -6897,10 +6909,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="23" t="s">
+        <v>798</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>750</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>751</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>61</v>
@@ -6909,7 +6921,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K12" s="23" t="b">
         <v>1</v>
@@ -6921,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R12" s="44" t="s">
         <v>723</v>
@@ -6932,10 +6944,10 @@
         <v>21</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>63</v>
@@ -6959,13 +6971,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>67</v>
@@ -6976,10 +6988,10 @@
         <v>22</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>799</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>750</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>751</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>61</v>
@@ -6988,7 +7000,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K15" s="23" t="b">
         <v>1</v>
@@ -7000,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R15" s="44" t="s">
         <v>723</v>
@@ -7011,10 +7023,10 @@
         <v>21</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>63</v>
@@ -7038,10 +7050,10 @@
         <v>21</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>63</v>
@@ -7065,10 +7077,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>63</v>
@@ -7092,10 +7104,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>63</v>
@@ -7119,10 +7131,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>63</v>
@@ -7146,10 +7158,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>63</v>
@@ -7173,10 +7185,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>63</v>
@@ -7200,10 +7212,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>63</v>
@@ -7227,10 +7239,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>63</v>
@@ -7254,13 +7266,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="43" t="s">
+        <v>782</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>783</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>784</v>
-      </c>
       <c r="D25" s="43" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E25" s="43" t="s">
         <v>67</v>
@@ -7271,10 +7283,10 @@
         <v>22</v>
       </c>
       <c r="D26" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="E26" s="23" t="s">
         <v>750</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>751</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>61</v>
@@ -7283,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K26" s="23" t="b">
         <v>1</v>
@@ -7295,7 +7307,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R26" s="44" t="s">
         <v>723</v>
@@ -7306,13 +7318,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="43" t="s">
+        <v>785</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>784</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>786</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>785</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>787</v>
       </c>
       <c r="E27" s="43" t="s">
         <v>67</v>
@@ -7323,10 +7335,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>750</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>751</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>61</v>
@@ -7335,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K28" s="23" t="b">
         <v>1</v>
@@ -7347,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R28" s="44" t="s">
         <v>723</v>
@@ -7358,7 +7370,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>297</v>
@@ -7385,7 +7397,7 @@
         <v>21</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>299</v>
@@ -7412,7 +7424,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>301</v>
@@ -7439,7 +7451,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>303</v>
@@ -7466,7 +7478,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>305</v>
@@ -7493,7 +7505,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>307</v>
@@ -7520,7 +7532,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>309</v>
@@ -7547,7 +7559,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>311</v>
@@ -7574,7 +7586,7 @@
         <v>21</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>313</v>
@@ -7601,7 +7613,7 @@
         <v>21</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>315</v>

--- a/projects/ptool_small_full_factorial_measures.xlsx
+++ b/projects/ptool_small_full_factorial_measures.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15345" yWindow="-15" windowWidth="9855" windowHeight="12390" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="33600" windowHeight="19840" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$16:$C$17</definedName>
     <definedName name="Workflow">Lookups!$E$16:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="803">
   <si>
     <t>type</t>
   </si>
@@ -2166,12 +2166,6 @@
     <t>standard_reports.total_building_area</t>
   </si>
   <si>
-    <t>0.3.6</t>
-  </si>
-  <si>
-    <t>1.8.0</t>
-  </si>
-  <si>
     <t>AWS Tag</t>
   </si>
   <si>
@@ -2268,18 +2262,9 @@
     <t>|SmallOffice,SecondarySchool|</t>
   </si>
   <si>
-    <t>[SmallOffice,SecondarySchool]</t>
-  </si>
-  <si>
     <t>|ASHRAE 169-2006-2A,ASHRAE 169-2006-3B|</t>
   </si>
   <si>
-    <t>[ASHRAE 169-2006-2A,ASHRAE 169-2006-3B]</t>
-  </si>
-  <si>
-    <t>[DOE Ref Pre-1980,90.1-2010]</t>
-  </si>
-  <si>
     <t>|DOE Ref Pre-1980,90.1-2010|</t>
   </si>
   <si>
@@ -2446,6 +2431,24 @@
   </si>
   <si>
     <t>Apply Advanced Power Strips</t>
+  </si>
+  <si>
+    <t>["SmallOffice","SecondarySchool"]</t>
+  </si>
+  <si>
+    <t>0.4.1</t>
+  </si>
+  <si>
+    <t>1.9.0</t>
+  </si>
+  <si>
+    <t>["DOE Ref Pre-1980", "90.1-2010"]</t>
+  </si>
+  <si>
+    <t>["ASHRAE 169-2006-2A", "ASHRAE 169-2006-3B"]</t>
+  </si>
+  <si>
+    <t>[true, false]</t>
   </si>
 </sst>
 </file>
@@ -2583,8 +2586,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1481">
+  <cellStyleXfs count="1489">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4163,7 +4174,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1481">
+  <cellStyles count="1489">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4904,6 +4915,10 @@
     <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5644,6 +5659,10 @@
     <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5945,21 +5964,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="33.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="61.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="33.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="61.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="19"/>
       <c r="B1" s="30"/>
       <c r="C1" s="19"/>
@@ -5969,7 +5988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>434</v>
       </c>
@@ -5979,18 +5998,18 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>708</v>
+        <v>798</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28">
       <c r="A4" s="1" t="s">
         <v>457</v>
       </c>
@@ -6001,18 +6020,18 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="42">
       <c r="A5" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>471</v>
       </c>
@@ -6023,7 +6042,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>441</v>
       </c>
@@ -6046,7 +6065,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28">
       <c r="A8" s="1" t="s">
         <v>442</v>
       </c>
@@ -6069,7 +6088,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>459</v>
       </c>
@@ -6088,21 +6107,21 @@
         <v>606</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="33" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="33" customFormat="1" ht="28">
       <c r="A10" s="33" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>
       <c r="F10" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="12" customFormat="1">
       <c r="A12" s="11" t="s">
         <v>27</v>
       </c>
@@ -6112,34 +6131,34 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="33" customFormat="1">
       <c r="A15" s="33" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6147,7 +6166,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -6158,7 +6177,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>463</v>
       </c>
@@ -6169,7 +6188,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>464</v>
       </c>
@@ -6180,7 +6199,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>465</v>
       </c>
@@ -6191,7 +6210,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>467</v>
       </c>
@@ -6202,7 +6221,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
@@ -6216,20 +6235,20 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="33" customFormat="1">
       <c r="B24" s="28"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A25" s="11" t="s">
         <v>450</v>
       </c>
@@ -6247,7 +6266,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,1,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Experiement Type</v>
@@ -6263,7 +6282,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="33"/>
     </row>
-    <row r="27" spans="1:6" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="28">
       <c r="A27" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,2,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))</f>
         <v>Number of Samples</v>
@@ -6279,7 +6298,7 @@
       <c r="D27" s="39"/>
       <c r="E27" s="33"/>
     </row>
-    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,3,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6295,7 +6314,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="33"/>
     </row>
-    <row r="29" spans="1:6" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="33" customFormat="1">
       <c r="A29" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,4,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6310,7 +6329,7 @@
       </c>
       <c r="D29" s="39"/>
     </row>
-    <row r="30" spans="1:6" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="33" customFormat="1">
       <c r="A30" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,5,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6325,7 +6344,7 @@
       </c>
       <c r="D30" s="39"/>
     </row>
-    <row r="31" spans="1:6" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="33" customFormat="1">
       <c r="A31" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,6,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6340,7 +6359,7 @@
       </c>
       <c r="D31" s="39"/>
     </row>
-    <row r="32" spans="1:6" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="33" customFormat="1">
       <c r="A32" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,7,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6355,7 +6374,7 @@
       </c>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="1:6" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="33" customFormat="1">
       <c r="A33" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,8,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6370,7 +6389,7 @@
       </c>
       <c r="D33" s="39"/>
     </row>
-    <row r="34" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="33" customFormat="1">
       <c r="A34" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,9,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6385,7 +6404,7 @@
       </c>
       <c r="D34" s="39"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$30,10,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6401,7 +6420,7 @@
       <c r="D35" s="39"/>
       <c r="E35" s="33"/>
     </row>
-    <row r="36" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="33" customFormat="1">
       <c r="A36" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))=0,"",INDEX(Lookups!$C$21:$Z$31,11,3*MATCH(Setup!$B23,Lookups!$A$21:$A$27,0)-2))</f>
         <v/>
@@ -6416,13 +6435,13 @@
       </c>
       <c r="D36" s="39"/>
     </row>
-    <row r="37" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="33" customFormat="1">
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A38" s="11" t="s">
         <v>32</v>
       </c>
@@ -6436,15 +6455,15 @@
       <c r="E38" s="11"/>
       <c r="F38" s="13"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A41" s="11" t="s">
         <v>29</v>
       </c>
@@ -6462,24 +6481,24 @@
         <v>448</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="28">
       <c r="A42" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A44" s="11" t="s">
         <v>34</v>
       </c>
@@ -6528,36 +6547,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="1"/>
-    <col min="17" max="18" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="1"/>
-    <col min="20" max="20" width="46.140625" style="1" customWidth="1"/>
-    <col min="21" max="23" width="11.42578125" style="1"/>
-    <col min="24" max="24" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="39.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="1"/>
+    <col min="17" max="18" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="1"/>
+    <col min="20" max="20" width="46.1640625" style="1" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="1"/>
+    <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6593,7 +6612,7 @@
       <c r="Y1" s="46"/>
       <c r="Z1" s="46"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -6609,7 +6628,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -6686,154 +6705,154 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="43" customFormat="1">
       <c r="A4" s="43" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="43" t="s">
+        <v>727</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>728</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>729</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>730</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>731</v>
       </c>
       <c r="E4" s="43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="44" t="s">
+    <row r="5" spans="1:26" s="33" customFormat="1">
+      <c r="B5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>730</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>731</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>732</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>733</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>734</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>741</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>734</v>
-      </c>
-      <c r="L5" s="44" t="s">
-        <v>734</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>734</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>742</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="33" t="s">
+        <v>739</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>797</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="44" customFormat="1">
       <c r="B6" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G6" s="44" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L6" s="44" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="M6" s="44" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="P6" s="44" t="s">
-        <v>745</v>
+        <v>800</v>
       </c>
       <c r="R6" s="44" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="44" customFormat="1" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="44" customFormat="1">
       <c r="B7" s="44" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G7" s="44" t="s">
         <v>61</v>
       </c>
       <c r="I7" s="44" t="s">
+        <v>738</v>
+      </c>
+      <c r="J7" s="44" t="s">
         <v>740</v>
       </c>
-      <c r="J7" s="44" t="s">
-        <v>743</v>
-      </c>
       <c r="K7" s="44" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="P7" s="44" t="s">
-        <v>744</v>
+        <v>801</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="43" customFormat="1">
       <c r="A8" s="43" t="b">
         <v>1</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E8" s="43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="23" customFormat="1">
       <c r="B9" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G9" s="23" t="s">
         <v>61</v>
@@ -6842,7 +6861,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="K9" s="23" t="b">
         <v>1</v>
@@ -6854,21 +6873,21 @@
         <v>1</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>751</v>
+        <v>802</v>
       </c>
       <c r="R9" s="44" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="33" customFormat="1">
       <c r="B10" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>63</v>
@@ -6887,32 +6906,32 @@
       </c>
       <c r="R10" s="45"/>
     </row>
-    <row r="11" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="43" customFormat="1">
       <c r="A11" s="43" t="b">
         <v>1</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="23" customFormat="1">
       <c r="B12" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>61</v>
@@ -6921,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="K12" s="23" t="b">
         <v>1</v>
@@ -6933,21 +6952,21 @@
         <v>1</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>751</v>
+        <v>802</v>
       </c>
       <c r="R12" s="44" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="33" customFormat="1">
       <c r="B13" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>63</v>
@@ -6966,32 +6985,32 @@
       </c>
       <c r="R13" s="45"/>
     </row>
-    <row r="14" spans="1:26" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="43" customFormat="1">
       <c r="A14" s="43" t="b">
         <v>1</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="E14" s="43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="23" customFormat="1">
       <c r="B15" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>61</v>
@@ -7000,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="K15" s="23" t="b">
         <v>1</v>
@@ -7012,21 +7031,21 @@
         <v>1</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>751</v>
+        <v>802</v>
       </c>
       <c r="R15" s="44" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="33" customFormat="1">
       <c r="B16" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>63</v>
@@ -7045,15 +7064,15 @@
       </c>
       <c r="R16" s="45"/>
     </row>
-    <row r="17" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="33" customFormat="1">
       <c r="B17" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>63</v>
@@ -7072,15 +7091,15 @@
       </c>
       <c r="R17" s="45"/>
     </row>
-    <row r="18" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="33" customFormat="1">
       <c r="B18" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>63</v>
@@ -7099,15 +7118,15 @@
       </c>
       <c r="R18" s="45"/>
     </row>
-    <row r="19" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="33" customFormat="1">
       <c r="B19" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>63</v>
@@ -7126,15 +7145,15 @@
       </c>
       <c r="R19" s="45"/>
     </row>
-    <row r="20" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="33" customFormat="1">
       <c r="B20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>63</v>
@@ -7153,15 +7172,15 @@
       </c>
       <c r="R20" s="45"/>
     </row>
-    <row r="21" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="33" customFormat="1">
       <c r="B21" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>63</v>
@@ -7180,15 +7199,15 @@
       </c>
       <c r="R21" s="45"/>
     </row>
-    <row r="22" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="33" customFormat="1">
       <c r="B22" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>63</v>
@@ -7207,15 +7226,15 @@
       </c>
       <c r="R22" s="45"/>
     </row>
-    <row r="23" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="33" customFormat="1">
       <c r="B23" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>63</v>
@@ -7234,15 +7253,15 @@
       </c>
       <c r="R23" s="45"/>
     </row>
-    <row r="24" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="33" customFormat="1">
       <c r="B24" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>63</v>
@@ -7261,32 +7280,32 @@
       </c>
       <c r="R24" s="45"/>
     </row>
-    <row r="25" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="43" customFormat="1">
       <c r="A25" s="43" t="b">
         <v>1</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E25" s="43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="23" customFormat="1">
       <c r="B26" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>61</v>
@@ -7295,7 +7314,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="K26" s="23" t="b">
         <v>1</v>
@@ -7307,38 +7326,38 @@
         <v>1</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>751</v>
+        <v>802</v>
       </c>
       <c r="R26" s="44" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="43" customFormat="1">
       <c r="A27" s="43" t="b">
         <v>1</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E27" s="43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="23" customFormat="1">
       <c r="B28" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>61</v>
@@ -7347,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="K28" s="23" t="b">
         <v>1</v>
@@ -7359,18 +7378,18 @@
         <v>1</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>751</v>
+        <v>802</v>
       </c>
       <c r="R28" s="44" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="33" customFormat="1">
       <c r="B29" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>297</v>
@@ -7392,12 +7411,12 @@
       </c>
       <c r="R29" s="45"/>
     </row>
-    <row r="30" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="33" customFormat="1">
       <c r="B30" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>299</v>
@@ -7419,12 +7438,12 @@
       </c>
       <c r="R30" s="45"/>
     </row>
-    <row r="31" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="33" customFormat="1">
       <c r="B31" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>301</v>
@@ -7446,12 +7465,12 @@
       </c>
       <c r="R31" s="45"/>
     </row>
-    <row r="32" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="33" customFormat="1">
       <c r="B32" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>303</v>
@@ -7473,12 +7492,12 @@
       </c>
       <c r="R32" s="45"/>
     </row>
-    <row r="33" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" s="33" customFormat="1">
       <c r="B33" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>305</v>
@@ -7500,12 +7519,12 @@
       </c>
       <c r="R33" s="45"/>
     </row>
-    <row r="34" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" s="33" customFormat="1">
       <c r="B34" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>307</v>
@@ -7527,12 +7546,12 @@
       </c>
       <c r="R34" s="45"/>
     </row>
-    <row r="35" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" s="33" customFormat="1">
       <c r="B35" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>309</v>
@@ -7554,12 +7573,12 @@
       </c>
       <c r="R35" s="45"/>
     </row>
-    <row r="36" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" s="33" customFormat="1">
       <c r="B36" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>311</v>
@@ -7581,12 +7600,12 @@
       </c>
       <c r="R36" s="45"/>
     </row>
-    <row r="37" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" s="33" customFormat="1">
       <c r="B37" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>313</v>
@@ -7608,12 +7627,12 @@
       </c>
       <c r="R37" s="45"/>
     </row>
-    <row r="38" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" s="33" customFormat="1">
       <c r="B38" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>315</v>
@@ -7635,32 +7654,32 @@
       </c>
       <c r="R38" s="45"/>
     </row>
-    <row r="39" spans="2:19" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:19" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:19" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:19" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:19" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:19" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:19" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" s="33" customFormat="1"/>
+    <row r="40" spans="2:19" s="33" customFormat="1"/>
+    <row r="41" spans="2:19" s="33" customFormat="1"/>
+    <row r="42" spans="2:19" s="33" customFormat="1"/>
+    <row r="43" spans="2:19" s="33" customFormat="1"/>
+    <row r="44" spans="2:19" s="33" customFormat="1"/>
+    <row r="45" spans="2:19" s="33" customFormat="1">
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="2:19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19" customFormat="1">
       <c r="C46" s="32"/>
       <c r="F46" s="33"/>
     </row>
-    <row r="47" spans="2:19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19" customFormat="1">
       <c r="C47" s="32"/>
       <c r="F47" s="33"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="2:19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19" customFormat="1">
       <c r="C48" s="32"/>
       <c r="F48" s="33"/>
     </row>
-    <row r="49" spans="1:25" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" customFormat="1">
       <c r="C49" s="32"/>
       <c r="F49" s="33"/>
       <c r="H49" s="1"/>
@@ -7668,7 +7687,7 @@
       <c r="P49" s="3"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50" s="32"/>
@@ -7694,7 +7713,7 @@
       <c r="X50" s="25"/>
       <c r="Y50" s="25"/>
     </row>
-    <row r="51" spans="1:25" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" customFormat="1">
       <c r="C51" s="32"/>
       <c r="F51" s="33"/>
       <c r="O51" s="3"/>
@@ -7703,7 +7722,7 @@
       <c r="R51" s="25"/>
       <c r="S51" s="25"/>
     </row>
-    <row r="52" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25">
       <c r="C52" s="33"/>
       <c r="I52" s="1"/>
       <c r="K52" s="4"/>
@@ -7714,7 +7733,7 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7727,30 +7746,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="27.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="33" customFormat="1" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7766,7 +7785,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>460</v>
       </c>
@@ -7804,7 +7823,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>625</v>
       </c>
@@ -7843,7 +7862,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="33" customFormat="1">
       <c r="A4" s="32" t="s">
         <v>632</v>
       </c>
@@ -7876,7 +7895,7 @@
       <c r="L4" s="32"/>
       <c r="M4" s="32"/>
     </row>
-    <row r="5" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="33" customFormat="1">
       <c r="A5" s="32" t="s">
         <v>635</v>
       </c>
@@ -7909,7 +7928,7 @@
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
     </row>
-    <row r="6" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="33" customFormat="1">
       <c r="A6" s="32" t="s">
         <v>638</v>
       </c>
@@ -7942,7 +7961,7 @@
       <c r="L6" s="32"/>
       <c r="M6" s="32"/>
     </row>
-    <row r="7" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="33" customFormat="1">
       <c r="A7" s="32" t="s">
         <v>641</v>
       </c>
@@ -7975,7 +7994,7 @@
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
     </row>
-    <row r="8" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="33" customFormat="1">
       <c r="A8" s="32" t="s">
         <v>663</v>
       </c>
@@ -8004,7 +8023,7 @@
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
     </row>
-    <row r="9" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="33" customFormat="1">
       <c r="A9" s="32" t="s">
         <v>665</v>
       </c>
@@ -8033,7 +8052,7 @@
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
     </row>
-    <row r="10" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="33" customFormat="1">
       <c r="A10" s="32" t="s">
         <v>666</v>
       </c>
@@ -8062,7 +8081,7 @@
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
     </row>
-    <row r="11" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="33" customFormat="1">
       <c r="A11" s="32" t="s">
         <v>667</v>
       </c>
@@ -8091,7 +8110,7 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
     </row>
-    <row r="12" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="33" customFormat="1">
       <c r="A12" s="32" t="s">
         <v>669</v>
       </c>
@@ -8120,7 +8139,7 @@
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
     </row>
-    <row r="13" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="33" customFormat="1">
       <c r="A13" s="32" t="s">
         <v>671</v>
       </c>
@@ -8149,7 +8168,7 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
     </row>
-    <row r="14" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="33" customFormat="1">
       <c r="A14" s="32" t="s">
         <v>673</v>
       </c>
@@ -8178,7 +8197,7 @@
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
     </row>
-    <row r="15" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="33" customFormat="1">
       <c r="A15" s="32" t="s">
         <v>675</v>
       </c>
@@ -8207,7 +8226,7 @@
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
     </row>
-    <row r="16" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="33" customFormat="1">
       <c r="A16" s="32" t="s">
         <v>677</v>
       </c>
@@ -8236,7 +8255,7 @@
       <c r="L16" s="32"/>
       <c r="M16" s="32"/>
     </row>
-    <row r="17" spans="1:13" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="32" customFormat="1">
       <c r="A17" s="32" t="s">
         <v>679</v>
       </c>
@@ -8259,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="32" customFormat="1">
       <c r="A18" s="32" t="s">
         <v>681</v>
       </c>
@@ -8282,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="32" customFormat="1">
       <c r="A19" s="32" t="s">
         <v>683</v>
       </c>
@@ -8305,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="32" customFormat="1">
       <c r="A20" s="32" t="s">
         <v>685</v>
       </c>
@@ -8328,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" s="32" customFormat="1">
       <c r="A21" s="32" t="s">
         <v>687</v>
       </c>
@@ -8351,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="32" customFormat="1">
       <c r="A22" s="32" t="s">
         <v>689</v>
       </c>
@@ -8374,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="33" customFormat="1">
       <c r="A23" s="32" t="s">
         <v>691</v>
       </c>
@@ -8403,7 +8422,7 @@
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
     </row>
-    <row r="24" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="33" customFormat="1">
       <c r="A24" s="32" t="s">
         <v>693</v>
       </c>
@@ -8432,7 +8451,7 @@
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
     </row>
-    <row r="25" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="33" customFormat="1">
       <c r="A25" s="32" t="s">
         <v>695</v>
       </c>
@@ -8461,7 +8480,7 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="1:13" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="33" customFormat="1">
       <c r="A26" s="32" t="s">
         <v>697</v>
       </c>
@@ -8490,214 +8509,214 @@
       <c r="L26" s="32"/>
       <c r="M26" s="32"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="C27" s="32"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="B28" s="32"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="B29" s="32"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="B30" s="32"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="B31" s="32"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="B32" s="32"/>
     </row>
-    <row r="33" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="32"/>
     </row>
-    <row r="34" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="32"/>
     </row>
-    <row r="35" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="32"/>
     </row>
-    <row r="36" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="32"/>
     </row>
-    <row r="37" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="32"/>
     </row>
-    <row r="38" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="32"/>
     </row>
-    <row r="39" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="32"/>
     </row>
-    <row r="40" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="32"/>
     </row>
-    <row r="41" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="32"/>
     </row>
-    <row r="42" spans="2:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="32"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2">
       <c r="B43" s="32"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2">
       <c r="B44" s="32"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2">
       <c r="B45" s="32"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2">
       <c r="B46" s="32"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2">
       <c r="B47" s="32"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2">
       <c r="B48" s="32"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2">
       <c r="B49" s="32"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2">
       <c r="B50" s="32"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2">
       <c r="B51" s="32"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2">
       <c r="B52" s="32"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2">
       <c r="B53" s="32"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2">
       <c r="B54" s="32"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2">
       <c r="B55" s="32"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2">
       <c r="B56" s="32"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2">
       <c r="B57" s="32"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2">
       <c r="B58" s="32"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2">
       <c r="B59" s="32"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2">
       <c r="B60" s="32"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2">
       <c r="B61" s="32"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2">
       <c r="B62" s="32"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2">
       <c r="B63" s="32"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2">
       <c r="B64" s="32"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2">
       <c r="B65" s="32"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2">
       <c r="B66" s="32"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2">
       <c r="B67" s="32"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2">
       <c r="B68" s="32"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2">
       <c r="B69" s="32"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2">
       <c r="B70" s="32"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2">
       <c r="B71" s="32"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2">
       <c r="B72" s="32"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2">
       <c r="B73" s="32"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2">
       <c r="B74" s="32"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2">
       <c r="B75" s="32"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2">
       <c r="B76" s="32"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2">
       <c r="B77" s="32"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2">
       <c r="B78" s="32"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2">
       <c r="B79" s="32"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2">
       <c r="B80" s="32"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2">
       <c r="B81" s="32"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2">
       <c r="B82" s="32"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2">
       <c r="B83" s="32"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2">
       <c r="B84" s="32"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2">
       <c r="B85" s="32"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2">
       <c r="B86" s="32"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2">
       <c r="B87" s="32"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2">
       <c r="B88" s="32"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2">
       <c r="B89" s="32"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2">
       <c r="B90" s="32"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2">
       <c r="B91" s="32"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2">
       <c r="B92" s="32"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2">
       <c r="B93" s="32"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2">
       <c r="B94" s="32"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2">
       <c r="B95" s="32"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2">
       <c r="B96" s="32"/>
     </row>
   </sheetData>
@@ -8719,19 +8738,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -8750,7 +8769,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -8771,7 +8790,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -8794,7 +8813,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -8817,7 +8836,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -8840,7 +8859,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -8863,7 +8882,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -8886,7 +8905,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -8909,7 +8928,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -8932,7 +8951,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -8955,7 +8974,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -8974,7 +8993,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -8995,7 +9014,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -9018,7 +9037,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -9041,7 +9060,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -9064,7 +9083,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -9087,7 +9106,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -9110,7 +9129,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -9133,7 +9152,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -9156,7 +9175,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -9179,7 +9198,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -9198,7 +9217,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -9221,7 +9240,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -9244,7 +9263,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -9267,7 +9286,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -9290,7 +9309,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -9313,7 +9332,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -9336,7 +9355,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -9359,7 +9378,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -9382,7 +9401,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -9405,7 +9424,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -9424,7 +9443,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -9445,7 +9464,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -9468,7 +9487,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -9491,7 +9510,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -9514,7 +9533,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -9537,7 +9556,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -9560,7 +9579,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -9583,7 +9602,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -9606,7 +9625,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -9629,7 +9648,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -9648,7 +9667,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -9669,7 +9688,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -9692,7 +9711,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -9715,7 +9734,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -9738,7 +9757,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -9761,7 +9780,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -9784,7 +9803,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -9807,7 +9826,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -9830,7 +9849,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -9853,7 +9872,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -9872,7 +9891,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -9893,7 +9912,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -9916,7 +9935,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -9939,7 +9958,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -9962,7 +9981,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -9985,7 +10004,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -10008,7 +10027,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -10031,7 +10050,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -10054,7 +10073,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -10077,7 +10096,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -10096,7 +10115,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -10117,7 +10136,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -10142,7 +10161,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -10165,7 +10184,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -10188,7 +10207,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -10211,7 +10230,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -10234,7 +10253,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -10257,7 +10276,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -10280,7 +10299,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -10303,7 +10322,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -10326,7 +10345,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -10345,7 +10364,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -10366,7 +10385,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -10389,7 +10408,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -10414,7 +10433,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -10437,7 +10456,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -10460,7 +10479,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -10483,7 +10502,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -10506,7 +10525,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -10529,7 +10548,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -10552,7 +10571,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -10575,7 +10594,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -10598,7 +10617,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -10621,7 +10640,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -10644,7 +10663,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -10663,7 +10682,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -10686,7 +10705,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -10709,7 +10728,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -10732,7 +10751,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -10755,7 +10774,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -10778,7 +10797,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -10801,7 +10820,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -10824,7 +10843,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -10847,7 +10866,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -10870,7 +10889,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -10893,7 +10912,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -10912,7 +10931,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -10937,7 +10956,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -10956,7 +10975,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -10977,7 +10996,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -11002,7 +11021,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -11021,7 +11040,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -11044,7 +11063,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -11069,7 +11088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -11092,7 +11111,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -11113,7 +11132,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -11132,7 +11151,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -11157,7 +11176,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -11180,7 +11199,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -11203,7 +11222,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -11226,7 +11245,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -11249,7 +11268,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -11272,7 +11291,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -11295,7 +11314,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -11314,7 +11333,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -11337,7 +11356,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -11360,7 +11379,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -11383,7 +11402,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -11402,7 +11421,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -11425,7 +11444,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -11448,7 +11467,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -11471,7 +11490,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -11494,7 +11513,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -11517,7 +11536,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -11540,7 +11559,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -11559,7 +11578,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -11584,7 +11603,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -11607,7 +11626,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -11630,7 +11649,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -11653,7 +11672,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -11676,7 +11695,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -11699,7 +11718,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -11722,7 +11741,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -11745,7 +11764,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -11768,7 +11787,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -11787,7 +11806,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -11812,7 +11831,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -11833,7 +11852,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -11856,7 +11875,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -11879,7 +11898,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -11902,7 +11921,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -11925,7 +11944,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -11948,7 +11967,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -11971,7 +11990,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -11994,7 +12013,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -12017,7 +12036,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -12040,7 +12059,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -12063,7 +12082,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -12086,7 +12105,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -12109,7 +12128,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -12128,7 +12147,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -12151,7 +12170,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -12170,7 +12189,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -12193,7 +12212,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -12216,7 +12235,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -12235,7 +12254,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -12260,7 +12279,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -12283,7 +12302,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -12306,7 +12325,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -12329,7 +12348,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -12352,7 +12371,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -12375,7 +12394,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -12398,7 +12417,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -12421,7 +12440,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -12444,7 +12463,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -12467,7 +12486,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -12486,7 +12505,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -12511,7 +12530,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -12534,7 +12553,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -12557,7 +12576,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -12580,7 +12599,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -12603,7 +12622,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -12626,7 +12645,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -12649,7 +12668,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -12672,7 +12691,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -12695,7 +12714,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -12718,7 +12737,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -12737,7 +12756,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -12760,7 +12779,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -12783,7 +12802,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -12806,7 +12825,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -12829,7 +12848,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -12848,7 +12867,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -12871,7 +12890,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -12894,7 +12913,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -12917,7 +12936,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -12940,7 +12959,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -12959,7 +12978,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -12980,7 +12999,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -13003,7 +13022,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -13022,7 +13041,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -13045,7 +13064,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -13070,7 +13089,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -13091,7 +13110,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -13116,7 +13135,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -13141,7 +13160,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -13160,7 +13179,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -13185,7 +13204,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -13208,7 +13227,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -13231,7 +13250,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -13254,7 +13273,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -13277,7 +13296,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -13300,7 +13319,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -13323,7 +13342,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -13346,7 +13365,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -13369,7 +13388,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -13388,7 +13407,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -13413,7 +13432,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -13436,7 +13455,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -13459,7 +13478,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -13482,7 +13501,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -13505,7 +13524,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -13528,7 +13547,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -13551,7 +13570,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -13574,7 +13593,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -13597,7 +13616,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -13616,7 +13635,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -13637,7 +13656,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -13660,7 +13679,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -13683,7 +13702,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -13706,7 +13725,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -13729,7 +13748,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -13752,7 +13771,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -13775,7 +13794,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -13798,7 +13817,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -13821,7 +13840,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -13844,7 +13863,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -13867,7 +13886,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -13890,7 +13909,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -13913,7 +13932,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -13936,7 +13955,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -13959,7 +13978,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -13982,7 +14001,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -14001,7 +14020,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -14022,7 +14041,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -14045,7 +14064,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -14068,7 +14087,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -14091,7 +14110,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -14114,7 +14133,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -14137,7 +14156,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -14160,7 +14179,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -14183,7 +14202,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -14206,7 +14225,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -14229,7 +14248,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -14252,7 +14271,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -14275,7 +14294,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -14298,7 +14317,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -14321,7 +14340,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -14344,7 +14363,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -14367,7 +14386,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -14386,7 +14405,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -14411,7 +14430,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -14434,7 +14453,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -14457,7 +14476,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -14480,7 +14499,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -14503,7 +14522,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -14522,7 +14541,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -14547,7 +14566,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -14570,7 +14589,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -14589,7 +14608,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -14608,7 +14627,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -14627,7 +14646,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -14648,7 +14667,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -14671,7 +14690,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -14694,7 +14713,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -14717,7 +14736,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -14740,7 +14759,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -14763,7 +14782,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -14786,7 +14805,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -14809,7 +14828,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -14832,7 +14851,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -14855,7 +14874,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -14878,7 +14897,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -14897,7 +14916,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -14920,7 +14939,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -14939,7 +14958,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -14964,7 +14983,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -14987,7 +15006,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -15010,7 +15029,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -15033,7 +15052,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -15056,7 +15075,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -15079,7 +15098,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -15102,7 +15121,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -15125,7 +15144,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -15148,7 +15167,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -15171,7 +15190,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -15194,7 +15213,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -15213,7 +15232,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -15236,7 +15255,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -15255,7 +15274,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -15276,7 +15295,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -15295,7 +15314,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -15316,7 +15335,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -15335,7 +15354,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -15356,7 +15375,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -15375,7 +15394,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -15398,7 +15417,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -15417,7 +15436,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -15442,7 +15461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -15465,7 +15484,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -15488,7 +15507,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -15511,7 +15530,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -15534,7 +15553,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -15557,7 +15576,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -15580,7 +15599,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -15603,7 +15622,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -15626,7 +15645,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -15645,7 +15664,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -15668,7 +15687,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -15691,7 +15710,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -15714,7 +15733,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -15737,7 +15756,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -15756,7 +15775,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -15779,7 +15798,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -15802,7 +15821,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -15827,7 +15846,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -15846,7 +15865,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -15871,7 +15890,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -15894,7 +15913,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -15913,7 +15932,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -15934,7 +15953,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -15955,7 +15974,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -15978,7 +15997,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -15997,7 +16016,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -16016,7 +16035,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -16041,7 +16060,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -16066,7 +16085,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -16080,7 +16099,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -16103,7 +16122,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -16123,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -16143,7 +16162,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -16163,7 +16182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -16180,7 +16199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -16203,7 +16222,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -16226,7 +16245,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -16240,7 +16259,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -16263,7 +16282,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -16286,7 +16305,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -16306,7 +16325,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -16326,7 +16345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -16343,7 +16362,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -16369,7 +16388,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -16398,7 +16417,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -16437,7 +16456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -16451,7 +16470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -16471,7 +16490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -16485,7 +16504,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -16505,7 +16524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -16525,7 +16544,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -16545,7 +16564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -16565,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -16585,7 +16604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -16605,7 +16624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -16625,7 +16644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -16645,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -16665,7 +16684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -16679,7 +16698,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -16699,7 +16718,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -16719,7 +16738,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -16735,7 +16754,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -16761,7 +16780,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -16802,7 +16821,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -16816,7 +16835,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -16836,7 +16855,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -16850,7 +16869,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -16889,17 +16908,17 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>440</v>
       </c>
@@ -16916,7 +16935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="32" customFormat="1">
       <c r="A2" s="32" t="s">
         <v>647</v>
       </c>
@@ -16933,7 +16952,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="32" customFormat="1">
       <c r="A3" s="32" t="s">
         <v>590</v>
       </c>
@@ -16950,7 +16969,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="32" customFormat="1">
       <c r="A4" s="32" t="s">
         <v>592</v>
       </c>
@@ -16967,7 +16986,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="32" customFormat="1">
       <c r="A5" s="32" t="s">
         <v>594</v>
       </c>
@@ -16984,7 +17003,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="32" customFormat="1">
       <c r="A6" s="32" t="s">
         <v>596</v>
       </c>
@@ -16998,10 +17017,10 @@
         <v>654</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="32" customFormat="1">
       <c r="A7" s="32" t="s">
         <v>598</v>
       </c>
@@ -17015,10 +17034,10 @@
         <v>652</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="32" customFormat="1">
       <c r="A8" s="32" t="s">
         <v>439</v>
       </c>
@@ -17032,10 +17051,10 @@
         <v>653</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="32" customFormat="1">
       <c r="A9" s="32" t="s">
         <v>601</v>
       </c>
@@ -17049,10 +17068,10 @@
         <v>655</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="32" t="s">
         <v>603</v>
       </c>
@@ -17066,46 +17085,46 @@
         <v>657</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="32" customFormat="1">
       <c r="A11" s="32" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>445</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="32" customFormat="1">
       <c r="A12" s="32" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>446</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="32" customFormat="1"/>
+    <row r="14" spans="1:7" s="32" customFormat="1"/>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>572</v>
       </c>
@@ -17119,7 +17138,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>455</v>
       </c>
@@ -17133,7 +17152,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>453</v>
       </c>
@@ -17144,8 +17163,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="32" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="32" customFormat="1"/>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -17153,7 +17172,7 @@
         <v>551</v>
       </c>
       <c r="F20" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I20" t="s">
         <v>559</v>
@@ -17171,18 +17190,18 @@
         <v>555</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>551</v>
       </c>
       <c r="F21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H21" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>540</v>
@@ -17212,9 +17231,9 @@
         <v>580</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F22" t="s">
         <v>4</v>
@@ -17253,7 +17272,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>544</v>
       </c>
@@ -17285,7 +17304,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>553</v>
       </c>
@@ -17317,7 +17336,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>552</v>
       </c>
@@ -17346,7 +17365,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>554</v>
       </c>
@@ -17378,7 +17397,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>555</v>
       </c>
@@ -17398,7 +17417,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="L28" s="1" t="s">
         <v>560</v>
       </c>
@@ -17418,7 +17437,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21">
       <c r="L29" s="1" t="s">
         <v>561</v>
       </c>
@@ -17429,7 +17448,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21">
       <c r="L30" s="1" t="s">
         <v>541</v>
       </c>
@@ -17437,7 +17456,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="L31" s="1" t="s">
         <v>543</v>
       </c>

--- a/projects/ptool_small_full_factorial_measures.xlsx
+++ b/projects/ptool_small_full_factorial_measures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="33600" windowHeight="19840" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -5964,8 +5964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6070,7 +6070,7 @@
         <v>442</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>439</v>
+        <v>603</v>
       </c>
       <c r="C8" s="36" t="str">
         <f>VLOOKUP($B8,instance_defs,5,FALSE)</f>
@@ -6078,11 +6078,11 @@
       </c>
       <c r="D8" s="36" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;" with "&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
-        <v>8 Cores with 80 GB</v>
+        <v>32 Cores with 320 GB</v>
       </c>
       <c r="E8" s="36" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
-        <v>$0.42/hour</v>
+        <v>$1.68/hour</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>443</v>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="E9" s="36" t="str">
         <f>"$"&amp;VALUE(LEFT(E7,5))+B9*VALUE(LEFT(E8,5))&amp;"/hour"</f>
-        <v>$0.7/hour</v>
+        <v>$1.96/hour</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>606</v>
@@ -6547,7 +6547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
